--- a/dependencies/bi/taylorella/te_09-0932/script_dependents/DefiningSNPsGroupDesignations.xlsx
+++ b/dependencies/bi/taylorella/te_09-0932/script_dependents/DefiningSNPsGroupDesignations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11209"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/root/TStuber/Results/bi/taylorella/vsnp/te_atcc_35865/script_dependents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/root/TStuber/Results/bi/taylorella/vsnp/te_09-0932/script_dependents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D93AE90-2E42-4842-A535-D71FF53C52CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8ABA74-1647-1945-9DE0-E3269DC7B452}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54800" yWindow="10260" windowWidth="30880" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29740" yWindow="-1600" windowWidth="30880" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -28,35 +28,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Grouping</t>
   </si>
   <si>
     <t>Absolute position</t>
   </si>
+  <si>
+    <t>NZ_CP021201.1-1190942</t>
+  </si>
+  <si>
+    <t>te-09-0932-02</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
+  <fonts count="22" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -521,133 +513,130 @@
   </borders>
   <cellStyleXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="115">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1066,7 +1055,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="129" zoomScaleNormal="129" zoomScalePageLayoutView="129" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1086,12 +1075,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="4"/>
-    </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3"/>
       <c r="B3"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1253,10 +1246,6 @@
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43"/>
       <c r="B43"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44"/>
-      <c r="B44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
